--- a/ALM_Project_Daily_Tasks_Tracker_2023_Dec_V1_RuturajSunilKharde.xlsx
+++ b/ALM_Project_Daily_Tasks_Tracker_2023_Dec_V1_RuturajSunilKharde.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\MyGitHub_username_abcrutuaj\Snyk_Docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\My_github\Snyk_Docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76087AA5-7DF3-450F-8DF1-4245F45F91BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="38670" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23172" windowHeight="10584" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Do not delete" sheetId="31" r:id="rId1"/>
@@ -43,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Madhu Kumari Gupta</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,24 +769,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D3" s="11" t="s">
         <v>19</v>
       </c>
@@ -801,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
@@ -821,7 +820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
@@ -841,7 +840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>70</v>
       </c>
@@ -861,7 +860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
         <v>3</v>
@@ -873,7 +872,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -889,7 +888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -904,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
@@ -915,7 +914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
@@ -926,7 +925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
         <v>6</v>
@@ -935,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>72</v>
       </c>
@@ -947,7 +946,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>72</v>
       </c>
@@ -959,7 +958,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>72</v>
       </c>
@@ -971,7 +970,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
@@ -983,7 +982,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
@@ -995,7 +994,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
@@ -1007,7 +1006,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
@@ -1019,7 +1018,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
@@ -1031,7 +1030,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
@@ -1043,7 +1042,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
@@ -1055,43 +1054,43 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="10"/>
     </row>
   </sheetData>
@@ -1103,24 +1102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1153,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1170,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1188,7 +1187,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1204,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1221,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1239,7 +1238,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1255,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1272,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1290,7 +1289,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1307,7 +1306,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
@@ -1324,7 +1323,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1341,7 +1340,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1358,7 +1357,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1374,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
@@ -1392,7 +1391,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1408,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1425,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E20" s="6">
         <f>SUM(E3:E19)</f>
         <v>2604</v>
@@ -1440,34 +1439,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.25" style="10"/>
+    <col min="15" max="16384" width="16.19921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>45261</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>45261</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>45261</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>45261</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>45261</v>
       </c>
@@ -1673,467 +1672,467 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>45261</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>45261</v>
       </c>
@@ -2144,31 +2143,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Do not delete'!$E$4:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Do not delete'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Do not delete'!$D$4:$D$22</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Do not delete'!$F$4:$F$9</xm:f>
           </x14:formula1>
           <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Do not delete'!$G$4:$G$11</xm:f>
           </x14:formula1>
@@ -2251,6 +2250,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ProposalDcoument" ma:contentTypeID="0x01010055B2796474ABF94C8D4FFCD687E5D96800E4B69E7C46BE734F816575C75DE8E790" ma:contentTypeVersion="19" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="b159e9f73fd777f4687e9211d60f96d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2cbd913-61f8-4ee6-971d-090d980dffb4" xmlns:ns3="926566de-ca12-49a7-93ed-396a09ad59af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc90c6d2b76d7ee1f4a7ddebd7f85ccd" ns2:_="" ns3:_="">
     <xsd:import namespace="c2cbd913-61f8-4ee6-971d-090d980dffb4"/>
@@ -2584,15 +2592,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF87D30F-17D3-4E28-A603-DE2744CA1B97}">
   <ds:schemaRefs>
@@ -2611,6 +2610,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14003F79-F63F-4164-B143-841F57082097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF960969-806F-4443-8287-4CFB46656372}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2627,12 +2634,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14003F79-F63F-4164-B143-841F57082097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>